--- a/data/trans_orig/ED_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad adulto elegido</t>
+          <t>Edad media del adulto entrevistado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>20,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,25</t>
+          <t>20,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,24</t>
+          <t>20,21</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 20,6</t>
+          <t>19,79; 20,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,89; 20,58</t>
+          <t>19,92; 20,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,98; 20,48</t>
+          <t>19,94; 20,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,74</t>
+          <t>29,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,7</t>
+          <t>30,18</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>29,98</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,4; 30,08</t>
+          <t>29,37; 30,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,4; 30,23</t>
+          <t>29,49; 31,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 29,98</t>
+          <t>29,57; 31,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,93</t>
+          <t>39,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,78</t>
+          <t>39,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>39,85</t>
+          <t>39,89</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 40,19</t>
+          <t>39,66; 40,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,55; 40,11</t>
+          <t>39,58; 40,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 40,05</t>
+          <t>39,7; 40,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,49</t>
+          <t>49,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,25</t>
+          <t>49,17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,37</t>
+          <t>49,54</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,24; 49,85</t>
+          <t>49,32; 50,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,04; 49,41</t>
+          <t>48,83; 49,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 49,56</t>
+          <t>49,2; 50,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>69,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>74,21</t>
+          <t>69,71</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,04</t>
+          <t>69,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74,69</t>
+          <t>69,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,81</t>
+          <t>69,03</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,67</t>
+          <t>68,97</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,95</t>
+          <t>69,29</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>75,0</t>
+          <t>68,45</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>73,66</t>
+          <t>69,11</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>74,47</t>
+          <t>69,32</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>74,56</t>
+          <t>69,3</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>74,87</t>
+          <t>68,77</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,98; 74,02</t>
+          <t>68,89; 69,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,64; 74,77</t>
+          <t>69,36; 70,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>73,55; 74,55</t>
+          <t>69,02; 69,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,24; 75,16</t>
+          <t>69,06; 69,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73,38; 74,26</t>
+          <t>68,7; 69,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>74,14; 75,14</t>
+          <t>68,67; 69,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,42; 75,46</t>
+          <t>68,96; 69,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>72,71; 76,09</t>
+          <t>67,54; 69,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,3; 74,0</t>
+          <t>68,89; 69,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,11; 74,85</t>
+          <t>69,09; 69,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>74,2; 74,94</t>
+          <t>69,08; 69,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>73,31; 75,52</t>
+          <t>67,84; 69,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,43</t>
+          <t>79,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>44,75</t>
+          <t>79,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,0</t>
+          <t>80,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49,07</t>
+          <t>81,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,78</t>
+          <t>78,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,06</t>
+          <t>79,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,27</t>
+          <t>80,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,95</t>
+          <t>82,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,62</t>
+          <t>78,97</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>45,93</t>
+          <t>79,83</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>47,16</t>
+          <t>80,25</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>50,07</t>
+          <t>81,86</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>78,82; 80,01</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>79,26; 80,41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>79,76; 80,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>81,09; 82,06</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>78,31; 79,17</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79,43; 80,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>79,76; 80,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>81,63; 82,46</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>78,65; 79,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>79,49; 80,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>79,9; 80,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>81,58; 82,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43,43</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44,75</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46,0</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>48,59</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>45,78</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>47,06</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>48,27</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51,04</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44,62</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>45,93</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>47,16</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>49,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>42,8; 44,07</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>44,1; 45,4</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>45,4; 46,62</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>48,34; 49,78</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>47,76; 49,42</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>45,18; 46,42</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>46,43; 47,68</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>47,6; 48,94</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>50,13; 52,38</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49,75; 53,81</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>44,13; 45,06</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>45,56; 46,41</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>46,76; 47,64</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>49,52; 50,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49,15; 51,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/ED_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Edad-trans_orig.xlsx
@@ -724,47 +724,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,55; 20,02</t>
+          <t>19,54; 20,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 20,29</t>
+          <t>19,81; 20,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 20,48</t>
+          <t>20,01; 20,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 20,54</t>
+          <t>19,75; 20,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,06; 20,52</t>
+          <t>20,04; 20,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,12; 20,64</t>
+          <t>20,11; 20,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 21,09</t>
+          <t>20,61; 21,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,92; 20,62</t>
+          <t>19,94; 20,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 20,21</t>
+          <t>19,87; 20,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 20,71</t>
+          <t>20,36; 20,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 20,47</t>
+          <t>19,94; 20,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,88; 29,31</t>
+          <t>28,87; 29,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,23; 29,67</t>
+          <t>29,24; 29,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,01; 29,52</t>
+          <t>29,02; 29,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,37; 30,07</t>
+          <t>29,4; 30,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,29; 29,8</t>
+          <t>29,31; 29,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 29,97</t>
+          <t>29,51; 29,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 29,98</t>
+          <t>29,53; 30,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,49; 31,61</t>
+          <t>29,48; 31,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,13; 29,46</t>
+          <t>29,15; 29,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 29,74</t>
+          <t>29,43; 29,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 29,67</t>
+          <t>29,32; 29,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,57; 31,0</t>
+          <t>29,57; 31,02</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,6; 40,09</t>
+          <t>39,61; 40,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 39,89</t>
+          <t>39,44; 39,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 39,64</t>
+          <t>39,15; 39,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 39,92</t>
+          <t>39,49; 39,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,36; 39,81</t>
+          <t>39,35; 39,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,29; 39,73</t>
+          <t>39,28; 39,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,58; 40,45</t>
+          <t>39,6; 40,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,61; 39,92</t>
+          <t>39,6; 39,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,48; 39,79</t>
+          <t>39,47; 39,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,3; 39,62</t>
+          <t>39,28; 39,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,7; 40,18</t>
+          <t>39,7; 40,17</t>
         </is>
       </c>
     </row>
@@ -1144,47 +1144,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,04; 49,6</t>
+          <t>49,02; 49,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,54; 49,06</t>
+          <t>48,56; 49,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 49,64</t>
+          <t>49,12; 49,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,32; 50,5</t>
+          <t>49,32; 50,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,87; 49,39</t>
+          <t>48,87; 49,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,97; 49,49</t>
+          <t>48,98; 49,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 49,57</t>
+          <t>49,09; 49,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,83; 49,34</t>
+          <t>48,81; 49,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,05; 49,42</t>
+          <t>49,05; 49,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 49,56</t>
+          <t>49,2; 49,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,08</t>
+          <t>49,21; 50,11</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,56; 60,2</t>
+          <t>59,54; 60,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,96; 59,58</t>
+          <t>58,95; 59,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,47 +1299,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,02; 59,45</t>
+          <t>59,01; 59,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,23; 59,82</t>
+          <t>59,23; 59,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,08; 59,67</t>
+          <t>59,05; 59,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,31; 59,89</t>
+          <t>59,3; 59,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,95; 59,33</t>
+          <t>58,97; 59,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,48; 59,91</t>
+          <t>59,47; 59,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,11; 59,53</t>
+          <t>59,08; 59,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,21; 59,62</t>
+          <t>59,23; 59,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,04; 59,33</t>
+          <t>59,03; 59,32</t>
         </is>
       </c>
     </row>
@@ -1424,52 +1424,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,89; 69,53</t>
+          <t>68,83; 69,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,36; 70,03</t>
+          <t>69,34; 70,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,02; 69,63</t>
+          <t>69,0; 69,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,06; 69,53</t>
+          <t>69,1; 69,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,7; 69,34</t>
+          <t>68,74; 69,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,67; 69,33</t>
+          <t>68,69; 69,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,96; 69,61</t>
+          <t>68,99; 69,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,54; 69,25</t>
+          <t>67,63; 69,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,89; 69,33</t>
+          <t>68,89; 69,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>69,09; 69,57</t>
+          <t>69,08; 69,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,84; 69,29</t>
+          <t>67,98; 69,29</t>
         </is>
       </c>
     </row>
@@ -1564,47 +1564,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,82; 80,01</t>
+          <t>78,84; 80,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,26; 80,41</t>
+          <t>79,26; 80,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,76; 80,65</t>
+          <t>79,74; 80,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,09; 82,06</t>
+          <t>81,1; 82,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>78,31; 79,17</t>
+          <t>78,28; 79,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,37</t>
+          <t>79,42; 80,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,76; 80,89</t>
+          <t>79,79; 80,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,63; 82,46</t>
+          <t>81,66; 82,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>78,65; 79,31</t>
+          <t>78,63; 79,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>79,9; 80,64</t>
+          <t>79,87; 80,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,58; 82,15</t>
+          <t>81,53; 82,17</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,8; 44,07</t>
+          <t>42,78; 44,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,1; 45,4</t>
+          <t>44,12; 45,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,4; 46,62</t>
+          <t>45,43; 46,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,76; 49,42</t>
+          <t>47,74; 49,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,42</t>
+          <t>45,13; 46,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,43; 47,68</t>
+          <t>46,41; 47,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,6; 48,94</t>
+          <t>47,57; 48,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,75; 53,81</t>
+          <t>49,73; 53,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,13; 45,06</t>
+          <t>44,15; 45,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>45,56; 46,41</t>
+          <t>45,5; 46,38</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>46,76; 47,64</t>
+          <t>46,71; 47,6</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,15; 51,38</t>
+          <t>49,09; 51,75</t>
         </is>
       </c>
     </row>
